--- a/biology/Médecine/Rhinite_vasomotrice/Rhinite_vasomotrice.xlsx
+++ b/biology/Médecine/Rhinite_vasomotrice/Rhinite_vasomotrice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rhinite vasomotrice est une rhinite persistante. Elle se définit comme non allergique et ne présentant pas de signes d'inflammation ni de causes exogènes identifiables à l'examen de la muqueuse nasale et ou à la cytologie nasale.
 Cette rhinite est aussi appelée rhinite positionnelle, et lorsqu'elle elle est associée à une rhinite allergique on la nomme "rhinite mixte".
@@ -516,7 +528,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pathologie est fréquente, avec une prédominance chez les femmes. Elle apparaît en général après l'âge de 20 ans.
 </t>
@@ -547,7 +561,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le symptôme le plus récurrent est la sensation de nez bouché.
 Cependant, il faut savoir que cette maladie existe sous deux formes.
@@ -581,7 +597,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle serait liée à une mauvaise régulation du système neurovégétatif.
 Par ailleurs, elle survient volontiers sur un terrain de stress. Elle peut également être due à une utilisation répétée de vasoconstricteurs par voie nasale (notamment utilisés conjointement avec un principe actif pour prolonger l'action locale et éviter l'action systémique).
@@ -614,7 +632,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre la gêne permanente qu'elle occasionne, elle peut dégrader la qualité du sommeil, voire être une cause aggravante d'apnée du sommeil.
 Elle est donc en tant que cause classique d'obstruction nasale  source de syndrome de haute  résistance des voies aériennes supérieures.
@@ -646,16 +666,123 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Il existe plusieurs traitements possibles[1].
-Brumisateur d'hygiène nasale
-Le premier consiste à utiliser un brumisateur d'hygiène nasale à base d'eau de mer. Il permet de laver le nez en douceur, diminuant la viscosité du mucus et facilitant son élimination. Il nettoie les fosses nasales et évacue les agents infectieux et allergènes. Enfin, il participe à la protection contre les infections[2]. Il en existe de nombreuses marques sur le marché. Toutefois, ces vaporisateurs se révèlent relativement peu efficaces pour les personnes dont la rhinite gêne fortement le sommeil.
-Corticoïde nasal
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs traitements possibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rhinite_vasomotrice</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhinite_vasomotrice</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Brumisateur d'hygiène nasale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier consiste à utiliser un brumisateur d'hygiène nasale à base d'eau de mer. Il permet de laver le nez en douceur, diminuant la viscosité du mucus et facilitant son élimination. Il nettoie les fosses nasales et évacue les agents infectieux et allergènes. Enfin, il participe à la protection contre les infections. Il en existe de nombreuses marques sur le marché. Toutefois, ces vaporisateurs se révèlent relativement peu efficaces pour les personnes dont la rhinite gêne fortement le sommeil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rhinite_vasomotrice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhinite_vasomotrice</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Corticoïde nasal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 De type Nasonex, Nasacort, Flixonase, Rhinocort, Beconase…
-Il est possible de traiter via un "antibactérien à usage systémique, le Zithromax"  également par un "antihistaminique à usage systémique, Xyzall, Primalan" 
-Suppression partielle des cornets nasaux
-Une chirurgie légère consiste à supprimer une légère partie des cornets nasaux. Cette opération s'appelle la turbinoplastie 
+Il est possible de traiter via un "antibactérien à usage systémique, le Zithromax"  également par un "antihistaminique à usage systémique, Xyzall, Primalan" </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rhinite_vasomotrice</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhinite_vasomotrice</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Suppression partielle des cornets nasaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Une chirurgie légère consiste à supprimer une légère partie des cornets nasaux. Cette opération s'appelle la turbinoplastie 
 Elle semble aujourd'hui bien maîtrisée, bien qu'elle comporte quelques risques : 
 désensibilisation de quelques dents supérieures (fréquent pendant quelques jours et exceptionnel de façon définitive),
 syndrome du nez vide qui peut apparaitre.</t>
